--- a/FancyDisplay/Assets/StreamingAssets/data/data.xlsx
+++ b/FancyDisplay/Assets/StreamingAssets/data/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>中国科学大学</t>
+  </si>
+  <si>
+    <t>1.mp4</t>
   </si>
   <si>
     <t>1.jpg</t>
@@ -985,13 +988,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
@@ -1038,6 +1041,300 @@
       </c>
       <c r="D3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1349,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1072,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1100,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FancyDisplay/Assets/StreamingAssets/data/data.xlsx
+++ b/FancyDisplay/Assets/StreamingAssets/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14745" windowHeight="10080"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="博士团队" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D25" sqref="A17:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1222,118 +1222,6 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
         <v>11</v>
       </c>
     </row>

--- a/FancyDisplay/Assets/StreamingAssets/data/data.xlsx
+++ b/FancyDisplay/Assets/StreamingAssets/data/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -988,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="A17:D25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1222,6 +1222,1182 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
         <v>11</v>
       </c>
     </row>
